--- a/knapsack/results.xlsx
+++ b/knapsack/results.xlsx
@@ -592,21 +592,21 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.793333333334092e-05</v>
+        <v>2.803333333330678e-05</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.0004398999999999931</v>
+        <v>0.001241733333333291</v>
       </c>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n">
-        <v>0.0003035000000000121</v>
+        <v>0.0008248666666665905</v>
       </c>
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="3" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="I2" s="3" t="n"/>
       <c r="J2" s="3" t="n">
@@ -659,21 +659,21 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.176666666664495e-05</v>
+        <v>2.620000000001325e-05</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.133333333331916e-05</v>
+        <v>0.0001014666666666238</v>
       </c>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n">
-        <v>3.740000000002075e-05</v>
+        <v>9.033333333334041e-05</v>
       </c>
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="I3" s="3" t="n"/>
       <c r="J3" s="3" t="n">
@@ -726,21 +726,21 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.149999999998912e-05</v>
+        <v>2.149999999997062e-05</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.0003048333333333282</v>
+        <v>0.0008585666666666899</v>
       </c>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n">
-        <v>6.226666666666232e-05</v>
+        <v>0.0002566666666666828</v>
       </c>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>0</v>
+        <v>1140</v>
       </c>
       <c r="I4" s="3" t="n"/>
       <c r="J4" s="3" t="n">
@@ -793,21 +793,21 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.176666666666345e-05</v>
+        <v>2.736666666665795e-05</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.0001025666666666554</v>
+        <v>0.0002849333333333111</v>
       </c>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n">
-        <v>9.55666666666577e-05</v>
+        <v>0.0002650666666667393</v>
       </c>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="I5" s="3" t="n"/>
       <c r="J5" s="3" t="n">
@@ -860,21 +860,21 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.353333333334392e-05</v>
+        <v>4.539999999997324e-05</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.0002618666666666658</v>
+        <v>0.0009228000000000384</v>
       </c>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n">
-        <v>0.0001682666666666573</v>
+        <v>0.0004391999999999729</v>
       </c>
       <c r="F6" s="2" t="n"/>
       <c r="G6" s="3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="I6" s="3" t="n"/>
       <c r="J6" s="3" t="n">
@@ -927,21 +927,21 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>2.386666666666833e-05</v>
+        <v>3.033333333331741e-05</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.0003274666666666463</v>
+        <v>0.00166753333333336</v>
       </c>
       <c r="D7" s="4" t="n"/>
       <c r="E7" s="4" t="n">
-        <v>0.0001075333333333169</v>
+        <v>0.0004488999999999373</v>
       </c>
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="I7" s="3" t="n"/>
       <c r="J7" s="3" t="n">
@@ -994,21 +994,21 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2.91666666666542e-05</v>
+        <v>5.820000000000825e-05</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.003573800000000035</v>
+        <v>0.01009663333333329</v>
       </c>
       <c r="D8" s="4" t="n"/>
       <c r="E8" s="4" t="n">
-        <v>0.002090999999999973</v>
+        <v>0.004432133333333328</v>
       </c>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="3" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>0</v>
+        <v>11250</v>
       </c>
       <c r="I8" s="3" t="n"/>
       <c r="J8" s="3" t="n">
